--- a/reports/corpus_wicaksono-unigram_bigram_trigram-fold-3.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram_trigram-fold-3.xlsx
@@ -582,88 +582,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9914772727272727</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9866666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9344978165938864</v>
+        <v>0.9868995633187773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9596774193548387</v>
+        <v>0.9919354838709677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8775153105861767</v>
+        <v>0.9965004374453194</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3</v>
+        <v>0.575</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8516949152542372</v>
+        <v>0.9872881355932204</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8099173553719008</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9873106835857552</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5605749486652978</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8982035928143712</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.8610169491525423</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.994269340974212</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.4106776180698152</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.5688622754491018</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.7818181818181819</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.3920454545454545</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.488135593220339</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="AA2" t="n">
-        <v>0.8161922663802363</v>
+        <v>0.9370300751879699</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5823498150941365</v>
+        <v>0.8720764137924144</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8966459574336194</v>
+        <v>0.9530557192751732</v>
       </c>
     </row>
     <row r="3">
@@ -682,79 +682,79 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9727272727272728</v>
+        <v>0.9699570815450643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9973730297723292</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9975186104218362</v>
+        <v>0.9936034115138592</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9925925925925926</v>
+        <v>0.9841897233201581</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.968</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6465264838967261</v>
+        <v>0.8611210282042128</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8125</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.966183574879227</v>
+        <v>0.9446366782006921</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.95</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9416058394160584</v>
+        <v>0.9408284023668639</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9825918762088974</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8161922663802363</v>
+        <v>0.9370300751879699</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8438969973868743</v>
+        <v>0.9141878531433858</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8161922663802363</v>
+        <v>0.9370300751879699</v>
       </c>
     </row>
     <row r="4">
@@ -764,88 +764,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9957203994293866</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9932885906040269</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.953229398663697</v>
+        <v>0.9783549783549783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5970149253731344</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9794238683127572</v>
+        <v>0.9959514170040485</v>
       </c>
       <c r="H4" t="n">
-        <v>0.934762348555452</v>
+        <v>0.9969365426695843</v>
       </c>
       <c r="I4" t="n">
-        <v>0.952029520295203</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9188571428571427</v>
+        <v>0.9904357066950054</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6335697399527187</v>
+        <v>0.9205175600739371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8828828828828829</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="N4" t="n">
+        <v>0.9879518072289156</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.919908466819222</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7036082474226805</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9036144578313253</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9520958083832336</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9467455621301774</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9177958446251129</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.7835483870967743</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.5763688760806917</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.9306930693069307</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.7116104868913858</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.8543046357615894</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5609756097560975</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.653061224489796</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
       <c r="AA4" t="n">
-        <v>0.8161922663802363</v>
+        <v>0.9370300751879699</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6584521564590545</v>
+        <v>0.8834124605121003</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8256700532700508</v>
+        <v>0.940733502648103</v>
       </c>
     </row>
     <row r="5">
@@ -855,82 +855,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C5" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H5" t="n">
-        <v>1003</v>
+        <v>1142</v>
       </c>
       <c r="I5" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="L5" t="n">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="M5" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>3757</v>
+        <v>2801</v>
       </c>
       <c r="P5" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="n">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="X5" t="n">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="Y5" t="n">
-        <v>292</v>
+        <v>517</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8161922663802363</v>
+        <v>0.9370300751879699</v>
       </c>
       <c r="AB5" t="n">
         <v>7448</v>
